--- a/Татьяничевой 25/Гараж/Калькуляция от Александр Карпусь..xlsx
+++ b/Татьяничевой 25/Гараж/Калькуляция от Александр Карпусь..xlsx
@@ -208,19 +208,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -527,19 +527,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="5"/>
+    <col min="4" max="4" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -558,7 +558,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -578,7 +578,7 @@
       <c r="E2" s="2">
         <v>390</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>17940</v>
       </c>
     </row>
@@ -596,7 +596,7 @@
       <c r="E3" s="2">
         <v>190</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>2823.4</v>
       </c>
     </row>
@@ -616,7 +616,7 @@
       <c r="E4" s="2">
         <v>30</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>1380</v>
       </c>
     </row>
@@ -636,7 +636,7 @@
       <c r="E5" s="2">
         <v>60</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>2760</v>
       </c>
     </row>
@@ -656,12 +656,12 @@
       <c r="E6" s="2">
         <v>120</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>5520</v>
       </c>
-      <c r="N6" s="7">
-        <f>SUM(E2:E6,E10,E11,E13)</f>
-        <v>1230</v>
+      <c r="N6" s="5">
+        <f>SUM(E2:E6,E11,E13)</f>
+        <v>1140</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -676,31 +676,31 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:14" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:14" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -718,7 +718,7 @@
       <c r="E10" s="2">
         <v>90</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>4140</v>
       </c>
     </row>
@@ -738,7 +738,7 @@
       <c r="E11" s="2">
         <v>60</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>2760</v>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -772,7 +772,7 @@
       <c r="E13" s="2">
         <v>290</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>13380</v>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:14" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -806,7 +806,7 @@
       <c r="E15" s="2">
         <v>130</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>1017.9</v>
       </c>
     </row>
@@ -826,7 +826,7 @@
       <c r="E16" s="2">
         <v>180</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>2016</v>
       </c>
     </row>
@@ -846,7 +846,7 @@
       <c r="E17" s="2">
         <v>200</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>1566</v>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -876,7 +876,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -894,7 +894,7 @@
       <c r="E20" s="2">
         <v>200</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>3806</v>
       </c>
     </row>
@@ -914,7 +914,7 @@
       <c r="E21" s="2">
         <v>400</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>7612</v>
       </c>
     </row>

--- a/Татьяничевой 25/Гараж/Калькуляция от Александр Карпусь..xlsx
+++ b/Татьяничевой 25/Гараж/Калькуляция от Александр Карпусь..xlsx
@@ -109,7 +109,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +135,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,10 +208,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -215,17 +227,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -525,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +598,7 @@
       <c r="E2" s="2">
         <v>390</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="8">
         <v>17940</v>
       </c>
     </row>
@@ -596,7 +616,7 @@
       <c r="E3" s="2">
         <v>190</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="8">
         <v>2823.4</v>
       </c>
     </row>
@@ -616,7 +636,7 @@
       <c r="E4" s="2">
         <v>30</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="8">
         <v>1380</v>
       </c>
     </row>
@@ -636,7 +656,7 @@
       <c r="E5" s="2">
         <v>60</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="8">
         <v>2760</v>
       </c>
     </row>
@@ -656,7 +676,7 @@
       <c r="E6" s="2">
         <v>120</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>5520</v>
       </c>
       <c r="N6" s="5">
@@ -676,31 +696,31 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -718,7 +738,7 @@
       <c r="E10" s="2">
         <v>90</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="8">
         <v>4140</v>
       </c>
     </row>
@@ -738,7 +758,7 @@
       <c r="E11" s="2">
         <v>60</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="8">
         <v>2760</v>
       </c>
     </row>
@@ -754,7 +774,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -772,7 +792,7 @@
       <c r="E13" s="2">
         <v>290</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="8">
         <v>13380</v>
       </c>
     </row>
@@ -788,7 +808,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -806,7 +826,7 @@
       <c r="E15" s="2">
         <v>130</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="8">
         <v>1017.9</v>
       </c>
     </row>
@@ -826,7 +846,7 @@
       <c r="E16" s="2">
         <v>180</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="8">
         <v>2016</v>
       </c>
     </row>
@@ -846,7 +866,7 @@
       <c r="E17" s="2">
         <v>200</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="8">
         <v>1566</v>
       </c>
     </row>
@@ -862,7 +882,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -876,7 +896,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -894,7 +914,7 @@
       <c r="E20" s="2">
         <v>200</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="8">
         <v>3806</v>
       </c>
     </row>
@@ -914,8 +934,14 @@
       <c r="E21" s="2">
         <v>400</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="8">
         <v>7612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="11">
+        <f>SUM(F2:F21)</f>
+        <v>66721.3</v>
       </c>
     </row>
   </sheetData>
